--- a/MPS/Importing/CustomerInformation.xlsx
+++ b/MPS/Importing/CustomerInformation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>CustomerCode</t>
   </si>
@@ -92,7 +92,10 @@
     <t>MNO101</t>
   </si>
   <si>
-    <t>450-050-545-450-KDTR01-00000001</t>
+    <t>SMDNo</t>
+  </si>
+  <si>
+    <t>450-050-545-450-KDTR01-C102</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +477,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,10 +523,13 @@
       <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -566,6 +572,9 @@
       </c>
       <c r="O2" s="2">
         <v>1004</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
